--- a/base_bot.xlsx
+++ b/base_bot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMRAPPI\Documents\Saul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B721AD-9C72-4A35-9479-7D7F173E65E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC25BBD-8B06-4872-B1AD-CB012CA494C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>Respuesta</t>
   </si>
   <si>
-    <t>Estatus</t>
+    <t>estatus</t>
   </si>
   <si>
     <t>Comentario</t>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +179,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,14 +688,14 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -707,7 +710,7 @@
       <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
@@ -739,7 +742,7 @@
       <c r="C2" s="4">
         <v>0.34305555555555561</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>5218111234567</v>
       </c>
       <c r="E2">
@@ -768,7 +771,7 @@
       <c r="C3" s="4">
         <v>0.65625</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>5218116543210</v>
       </c>
       <c r="E3">
@@ -797,7 +800,7 @@
       <c r="C4" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>5218112345678</v>
       </c>
       <c r="E4">
@@ -826,7 +829,7 @@
       <c r="C5" s="4">
         <v>0.75694444444444442</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>5218113456789</v>
       </c>
       <c r="E5">
@@ -855,7 +858,7 @@
       <c r="C6" s="4">
         <v>0.3298611111111111</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>5218114567890</v>
       </c>
       <c r="E6">
@@ -884,7 +887,7 @@
       <c r="C7" s="4">
         <v>0.59166666666666667</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>5218115678901</v>
       </c>
       <c r="E7">
@@ -913,7 +916,7 @@
       <c r="C8" s="4">
         <v>0.875</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>5218116789012</v>
       </c>
       <c r="E8">
@@ -942,7 +945,7 @@
       <c r="C9" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>5218117890123</v>
       </c>
       <c r="E9">
@@ -971,7 +974,7 @@
       <c r="C10" s="4">
         <v>0.4465277777777778</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>5218118901234</v>
       </c>
       <c r="E10">
@@ -1000,7 +1003,7 @@
       <c r="C11" s="4">
         <v>0.56041666666666667</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>5218119012345</v>
       </c>
       <c r="E11">
@@ -1029,7 +1032,7 @@
       <c r="C12" s="4">
         <v>0.81527777777777777</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>5218110123456</v>
       </c>
       <c r="E12">
@@ -1058,7 +1061,7 @@
       <c r="C13" s="4">
         <v>0.34722222222222221</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>5218110987654</v>
       </c>
       <c r="E13">
@@ -1087,7 +1090,7 @@
       <c r="C14" s="4">
         <v>0.69722222222222219</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>5218111122334</v>
       </c>
       <c r="E14">
@@ -1116,7 +1119,7 @@
       <c r="C15" s="4">
         <v>0.95486111111111116</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>5218112233445</v>
       </c>
       <c r="E15">
@@ -1145,7 +1148,7 @@
       <c r="C16" s="4">
         <v>0.26597222222222222</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>5218113344556</v>
       </c>
       <c r="E16">
@@ -1174,7 +1177,7 @@
       <c r="C17" s="4">
         <v>0.48402777777777778</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>5218114455667</v>
       </c>
       <c r="E17">
@@ -1203,7 +1206,7 @@
       <c r="C18" s="4">
         <v>0.6166666666666667</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>5218115566778</v>
       </c>
       <c r="E18">
@@ -1232,7 +1235,7 @@
       <c r="C19" s="4">
         <v>0.71458333333333335</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>5218116677889</v>
       </c>
       <c r="E19">
@@ -1261,7 +1264,7 @@
       <c r="C20" s="4">
         <v>0.86805555555555558</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>5218117788990</v>
       </c>
       <c r="E20">
@@ -1290,7 +1293,7 @@
       <c r="C21" s="4">
         <v>0.3840277777777778</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>5218118899001</v>
       </c>
       <c r="E21">
@@ -1319,7 +1322,7 @@
       <c r="C22" s="4">
         <v>0.51527777777777772</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>5218119900112</v>
       </c>
       <c r="E22">
@@ -1348,7 +1351,7 @@
       <c r="C23" s="4">
         <v>0.7729166666666667</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>5218111011123</v>
       </c>
       <c r="E23">
@@ -1377,7 +1380,7 @@
       <c r="C24" s="4">
         <v>0.32013888888888892</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>5218112122234</v>
       </c>
       <c r="E24">
@@ -1406,7 +1409,7 @@
       <c r="C25" s="4">
         <v>0.96180555555555558</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>5218113233345</v>
       </c>
       <c r="E25">
@@ -1435,7 +1438,7 @@
       <c r="C26" s="4">
         <v>0.91597222222222219</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>5218114344456</v>
       </c>
       <c r="E26">
@@ -1464,7 +1467,7 @@
       <c r="C27" s="4">
         <v>0.57361111111111107</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>5218115455567</v>
       </c>
       <c r="E27">
@@ -1493,7 +1496,7 @@
       <c r="C28" s="4">
         <v>0.49652777777777779</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>5218116566678</v>
       </c>
       <c r="E28">
@@ -1522,7 +1525,7 @@
       <c r="C29" s="4">
         <v>0.35347222222222219</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>5218117677789</v>
       </c>
       <c r="E29">
@@ -1551,7 +1554,7 @@
       <c r="C30" s="4">
         <v>0.6791666666666667</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>5218118788890</v>
       </c>
       <c r="E30">
@@ -1580,7 +1583,7 @@
       <c r="C31" s="4">
         <v>0.58472222222222225</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>5218119899001</v>
       </c>
       <c r="E31">
@@ -1609,7 +1612,7 @@
       <c r="C32" s="4">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>5218111111222</v>
       </c>
       <c r="E32">
@@ -1638,7 +1641,7 @@
       <c r="C33" s="4">
         <v>0.93958333333333333</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>5218112222333</v>
       </c>
       <c r="E33">
@@ -1667,7 +1670,7 @@
       <c r="C34" s="4">
         <v>0.28888888888888892</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>5218113333444</v>
       </c>
       <c r="E34">
@@ -1696,7 +1699,7 @@
       <c r="C35" s="4">
         <v>0.63263888888888886</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>5218114444555</v>
       </c>
       <c r="E35">
@@ -1725,7 +1728,7 @@
       <c r="C36" s="4">
         <v>0.50347222222222221</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>5218115555666</v>
       </c>
       <c r="E36">
@@ -1754,7 +1757,7 @@
       <c r="C37" s="4">
         <v>0.72152777777777777</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>5218116666777</v>
       </c>
       <c r="E37">
@@ -1783,7 +1786,7 @@
       <c r="C38" s="4">
         <v>0.86041666666666672</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>5218117777888</v>
       </c>
       <c r="E38">
@@ -1812,7 +1815,7 @@
       <c r="C39" s="4">
         <v>0.30138888888888887</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>5218118888999</v>
       </c>
       <c r="E39">
@@ -1841,7 +1844,7 @@
       <c r="C40" s="4">
         <v>0.7680555555555556</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>5218119999000</v>
       </c>
       <c r="E40">
